--- a/LoanOfficer-A/2023/Loanee-Mona.xlsx
+++ b/LoanOfficer-A/2023/Loanee-Mona.xlsx
@@ -327,7 +327,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -605,7 +605,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -776,8 +776,8 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20:H26"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -823,7 +823,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -832,7 +832,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>5400</v>
+        <v>6100</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -865,7 +865,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>6600</v>
+        <v>5900</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -897,9 +897,15 @@
       <c r="I3" s="1">
         <v>61</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="1"/>
+      <c r="J3" s="3">
+        <v>45274</v>
+      </c>
+      <c r="K3" s="4">
+        <v>100</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
       <c r="M3" s="1">
         <v>91</v>
       </c>
@@ -1797,9 +1803,15 @@
       <c r="E27" s="1">
         <v>55</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="1"/>
+      <c r="F27" s="3">
+        <v>45268</v>
+      </c>
+      <c r="G27" s="4">
+        <v>100</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
       <c r="I27" s="1">
         <v>85</v>
       </c>
@@ -1829,9 +1841,15 @@
       <c r="E28" s="1">
         <v>56</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="1"/>
+      <c r="F28" s="3">
+        <v>45269</v>
+      </c>
+      <c r="G28" s="4">
+        <v>100</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
       <c r="I28" s="1">
         <v>86</v>
       </c>
@@ -1861,9 +1879,15 @@
       <c r="E29" s="1">
         <v>57</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="1"/>
+      <c r="F29" s="3">
+        <v>45270</v>
+      </c>
+      <c r="G29" s="4">
+        <v>100</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
       <c r="I29" s="1">
         <v>87</v>
       </c>
@@ -1893,9 +1917,15 @@
       <c r="E30" s="1">
         <v>58</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="1"/>
+      <c r="F30" s="3">
+        <v>45271</v>
+      </c>
+      <c r="G30" s="4">
+        <v>100</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
       <c r="I30" s="1">
         <v>88</v>
       </c>
@@ -1925,9 +1955,15 @@
       <c r="E31" s="1">
         <v>59</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="1"/>
+      <c r="F31" s="3">
+        <v>45272</v>
+      </c>
+      <c r="G31" s="4">
+        <v>100</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
       <c r="I31" s="1">
         <v>89</v>
       </c>
@@ -1957,9 +1993,15 @@
       <c r="E32" s="1">
         <v>60</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="1"/>
+      <c r="F32" s="3">
+        <v>45273</v>
+      </c>
+      <c r="G32" s="4">
+        <v>100</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
       <c r="I32" s="1">
         <v>90</v>
       </c>

--- a/LoanOfficer-A/2023/Loanee-Mona.xlsx
+++ b/LoanOfficer-A/2023/Loanee-Mona.xlsx
@@ -327,7 +327,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -605,7 +605,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -777,7 +777,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -823,7 +823,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -832,7 +832,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>6100</v>
+        <v>6500</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -865,7 +865,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>5900</v>
+        <v>5500</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -941,9 +941,15 @@
       <c r="I4" s="1">
         <v>62</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="1"/>
+      <c r="J4" s="3">
+        <v>45275</v>
+      </c>
+      <c r="K4" s="4">
+        <v>100</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
       <c r="M4" s="1">
         <v>92</v>
       </c>
@@ -979,9 +985,15 @@
       <c r="I5" s="1">
         <v>63</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="1"/>
+      <c r="J5" s="3">
+        <v>45276</v>
+      </c>
+      <c r="K5" s="4">
+        <v>100</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
       <c r="M5" s="1">
         <v>93</v>
       </c>
@@ -1017,9 +1029,15 @@
       <c r="I6" s="1">
         <v>64</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="1"/>
+      <c r="J6" s="3">
+        <v>45277</v>
+      </c>
+      <c r="K6" s="4">
+        <v>100</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
       <c r="M6" s="1">
         <v>94</v>
       </c>
@@ -1055,9 +1073,15 @@
       <c r="I7" s="1">
         <v>65</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="1"/>
+      <c r="J7" s="3">
+        <v>45278</v>
+      </c>
+      <c r="K7" s="4">
+        <v>100</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
       <c r="M7" s="1">
         <v>95</v>
       </c>

--- a/LoanOfficer-A/2023/Loanee-Mona.xlsx
+++ b/LoanOfficer-A/2023/Loanee-Mona.xlsx
@@ -327,7 +327,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -605,7 +605,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -777,7 +777,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3:L7"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -823,7 +823,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -832,7 +832,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -865,7 +865,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -1117,9 +1117,15 @@
       <c r="I8" s="1">
         <v>66</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="1"/>
+      <c r="J8" s="3">
+        <v>45279</v>
+      </c>
+      <c r="K8" s="4">
+        <v>100</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
       <c r="M8" s="1">
         <v>96</v>
       </c>
@@ -1155,9 +1161,15 @@
       <c r="I9" s="1">
         <v>67</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="1"/>
+      <c r="J9" s="3">
+        <v>45280</v>
+      </c>
+      <c r="K9" s="4">
+        <v>100</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
       <c r="M9" s="1">
         <v>97</v>
       </c>
@@ -1193,9 +1205,15 @@
       <c r="I10" s="1">
         <v>68</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="1"/>
+      <c r="J10" s="3">
+        <v>45281</v>
+      </c>
+      <c r="K10" s="4">
+        <v>100</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
       <c r="M10" s="1">
         <v>98</v>
       </c>
@@ -1231,9 +1249,15 @@
       <c r="I11" s="1">
         <v>69</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="1"/>
+      <c r="J11" s="3">
+        <v>45282</v>
+      </c>
+      <c r="K11" s="4">
+        <v>100</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
       <c r="M11" s="1">
         <v>99</v>
       </c>
@@ -1269,9 +1293,15 @@
       <c r="I12" s="1">
         <v>70</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="1"/>
+      <c r="J12" s="3">
+        <v>45283</v>
+      </c>
+      <c r="K12" s="4">
+        <v>100</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
       <c r="M12" s="1">
         <v>100</v>
       </c>
